--- a/components/(extract)/ebaytemplate.xlsx
+++ b/components/(extract)/ebaytemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejrta/Documents/Coding Folders/Scripts and Macros/Tools and Workflow Scripts/Flickr&amp;EbayV1/components/(extract)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejrta/Documents/Coding Folders/Scripts and Macros/Tools and Workflow Scripts/RTAEbayTool/components/(extract)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD554DD-454B-8C4D-946D-D6303E5DA9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B58885-8D63-C743-AB3A-3369DC5F8E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-18460" windowWidth="51200" windowHeight="27420" xr2:uid="{FB1DA89E-5706-244C-A65C-DF32C20AF823}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20700" xr2:uid="{FB1DA89E-5706-244C-A65C-DF32C20AF823}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>#INFO</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>PackageDepth</t>
+  </si>
+  <si>
+    <t>C:Grading Designation</t>
   </si>
 </sst>
 </file>
@@ -651,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04290C4C-A4DA-4F47-BF90-9B1BD25B8F32}">
-  <dimension ref="A1:BJ5"/>
+  <dimension ref="A1:BK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AW16" sqref="AW16"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BK5" sqref="BK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,7 +670,7 @@
     <col min="62" max="62" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +686,7 @@
       <c r="AZ1"/>
       <c r="BE1"/>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -702,14 +705,14 @@
       <c r="AZ2"/>
       <c r="BE2"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="AZ3"/>
       <c r="BE3"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -896,8 +899,11 @@
       <c r="BJ4" t="s">
         <v>69</v>
       </c>
+      <c r="BK4" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" ht="19" x14ac:dyDescent="0.25">
       <c r="BE5" s="2"/>
     </row>
   </sheetData>
